--- a/pred_ohlcv/54_21/2019-10-28 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 MTL ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-28847.41078722</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-28847.41078722</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-28847.41078722</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-32028.25328722</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-32027.25328722</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-34316.37158722</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-34316.37158722</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-34124.81078722</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-38469.49828722</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-20075.52517214</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-17457.68233612</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-17690.01563612001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-22062.86433612001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-23366.86423612001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-20556.11173612001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-21896.32113612001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-21810.71483612001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-21810.71483612001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-21814.71483612001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-21813.71483612001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-21031.29833612001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-21031.29833612001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-14816.62393612001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-15547.94283612001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-15129.48223612001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-15129.48223612001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-15129.48223612001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-11284.43833612001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-12267.11493612001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-11732.11493612001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-11732.11493612001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-872.5140361200101</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1230.51403612001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1230.51403612001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>128.8790638799899</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>50.87906387998987</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>50.87906387998987</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>51.97906387998987</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>51.97906387998987</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-181.4444361200101</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-176.1728361200101</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-177.1728361200101</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>852.97906387999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>851.97906387999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>851.97906387999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>851.97906387999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>851.97906387999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>850.97906387999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>850.97906387999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>850.97906387999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>849.97906387999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>848.97906387999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2013.39289111999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-6684.49630888001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2203.71127334001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2219.78377334001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2219.78377334001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-9641.054473340009</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-9613.74237334001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-9614.74237334001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-9614.74237334001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-29929.39628012001</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-30028.02628012002</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-5077.82026696002</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-5077.82026696002</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-25234.30636696002</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-17282.92706696002</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-17282.92706696002</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-17575.58926696001</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-21227.17656696001</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-20802.36336696001</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-6071.409966960013</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-6071.409966960013</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-13246.50026696001</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-6570.895266960013</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-6570.895266960013</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-11525.64306696001</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-11498.76136696001</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-11662.02936696001</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-11662.02936696001</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-11662.02936696001</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-11111.02936696001</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-11111.02936696001</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-11252.31076696001</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-9520.091666960012</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-4936.982866960012</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-4935.982866960012</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-4935.982866960012</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-5177.132566960012</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-9984.614566960012</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-9878.108566960012</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-10563.01286696001</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-8597.951566960013</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-8388.299971220013</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-11224.88437122001</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-11222.88437122001</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-11813.95457122001</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-12921.44537122001</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-12920.34537122001</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-18556.56757122001</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-6928.428983430011</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-6928.428983430011</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>6241.086163509988</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-71513.33684327998</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-71513.33684327998</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-70430.91008149997</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-71153.85758149996</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-71150.33658149997</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-71150.33658149997</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-79443.59058149997</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-79787.65708149997</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-106687.9782815</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-106686.8782815</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-106921.4036815</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-106920.4036815</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-113372.3272815</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-113372.3272815</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-112650.6363814999</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-114004.0520814999</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-115500.9771814999</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-112999.9771814999</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-109267.3540814999</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-109510.4871814999</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-113539.6334814999</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-114260.4372814999</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-114260.4372814999</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-114267.4372814999</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-69608.50888149992</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-70008.50888149992</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-71842.31478149992</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-70602.90468149992</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-70602.90468149992</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-70542.90468149992</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-70541.90468149992</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-70541.90468149992</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-74663.13218149992</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-79307.90638149992</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-74237.70728149993</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-74237.70728149993</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-73678.80208149993</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-2583.809941009936</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>1270.405758990064</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-622.1510410099361</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-18404.27934926993</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-4866.437549269935</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-5168.437549269935</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-3839.829449269935</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-7965.707949269934</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-25595.16224926994</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-30982.75964926993</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-31709.78844926993</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-23815.62014926993</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-23815.62014926993</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-23815.62014926993</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-23815.62014926993</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-23814.62014926993</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-39008.28624926994</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-39008.28624926994</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-38981.47664926993</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-37672.38684926993</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-37672.38684926993</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-37672.38684926993</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-37671.38684926993</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-37671.38684926993</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-37671.38684926993</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-40143.01994926993</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-42080.86034926993</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-37854.63214926993</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-32178.99054926993</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-34176.18264926993</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-33833.78714926993</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-36281.73934926993</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-35231.62794926993</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-35231.62794926993</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-36420.11194926992</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-34754.36719887993</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-34754.36719887993</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-34754.36719887993</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-33842.49339887992</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-27073.72819620992</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-24800.44851283992</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-24800.44851283992</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-21160.39809620992</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-21160.39809620992</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-21160.39809620992</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-21160.39809620992</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-21170.39809620992</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-15581.44549620992</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-20201.44549620992</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-20200.44549620992</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-20200.44549620992</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-20200.44549620992</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>3111.25960379008</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>3111.25960379008</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>3111.25960379008</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>6910.15220379008</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>6911.15220379008</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5682.994603790081</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>7045.312303790081</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>7045.312303790081</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-2736.299396209918</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>5639.690394340081</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>19736.87200379008</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>28344.00150379008</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>28344.00150379008</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>30330.00150379008</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>214445.0513230601</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>223106.9280230601</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>237462.2144230601</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>237462.2144230601</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>218422.4808230601</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>220498.9500230601</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>217689.1016230601</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>226071.5557230601</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>224301.8099230601</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>208671.2423230601</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>209000.2423230601</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>209000.2423230601</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-28 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 MTL ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-28847.41078722</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-28847.41078722</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-28847.41078722</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-32028.25328722</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-32027.25328722</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-34316.37158722</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-34316.37158722</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-34124.81078722</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-38469.49828722</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-20075.52517214</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-24037.45067214</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-24006.50427214</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-24350.26427214</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-20357.26427214</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-17457.68233612</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-17690.01563612001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-22062.86433612001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-23366.86423612001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-20556.11173612001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-21896.32113612001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-21810.71483612001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-21810.71483612001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-21814.71483612001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-21813.71483612001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-21031.29833612001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-21031.29833612001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-14816.62393612001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-15547.94283612001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-15129.48223612001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-15129.48223612001</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-15129.48223612001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-11284.43833612001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-12267.11493612001</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-11732.11493612001</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-11732.11493612001</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-872.5140361200101</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1230.51403612001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1230.51403612001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>128.8790638799899</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>50.87906387998987</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>50.87906387998987</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>51.97906387998987</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>51.97906387998987</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-181.4444361200101</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-176.1728361200101</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-177.1728361200101</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>852.97906387999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>851.97906387999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>851.97906387999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>851.97906387999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>851.97906387999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>850.97906387999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>850.97906387999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>850.97906387999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>849.97906387999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>848.97906387999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2013.39289111999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-6684.49630888001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2203.71127334001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2219.78377334001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2219.78377334001</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-9641.054473340009</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-9613.74237334001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-9614.74237334001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-9614.74237334001</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-5077.82026696002</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-5077.82026696002</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-25234.30636696002</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-17282.92706696002</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-17282.92706696002</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-17283.92706696002</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-17575.58926696001</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-21227.17656696001</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-20802.36336696001</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-6071.409966960013</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-6071.409966960013</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-13246.50026696001</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-6570.895266960013</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-6570.895266960013</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-11525.64306696001</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-11498.76136696001</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-11662.02936696001</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-11662.02936696001</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-11662.02936696001</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-11111.02936696001</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-11111.02936696001</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-11252.31076696001</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-9520.091666960012</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-4936.982866960012</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-4935.982866960012</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-4935.982866960012</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-5177.132566960012</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-9984.614566960012</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-9878.108566960012</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-10563.01286696001</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-8597.951566960013</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-8388.299971220013</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-11224.88437122001</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-11222.88437122001</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-11813.95457122001</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-12921.44537122001</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-12920.34537122001</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-18556.56757122001</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-6928.428983430011</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-6928.428983430011</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>6241.086163509988</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-71513.33684327998</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-71513.33684327998</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-70430.91008149997</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-71153.85758149996</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-71150.33658149997</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-71150.33658149997</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-79443.59058149997</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-79787.65708149997</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-106687.9782815</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-106686.8782815</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-106921.4036815</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-106920.4036815</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-113372.3272815</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-113372.3272815</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-112650.6363814999</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-114004.0520814999</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-112999.9771814999</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-112999.9771814999</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-112999.9771814999</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-109562.9771814999</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-108286.2197814999</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-108286.2197814999</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-109559.7852814999</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-109267.3540814999</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-109267.3540814999</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-109510.4871814999</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-113539.6334814999</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-114260.4372814999</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-114260.4372814999</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-114260.4372814999</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-114267.4372814999</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-69608.50888149992</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-70008.50888149992</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-71842.31478149992</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-69458.41548149992</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-58439.11748149993</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-58439.11748149993</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-58437.91748149994</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-2583.809941009936</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>1270.405758990064</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-622.1510410099361</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-18404.27934926993</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-4866.437549269935</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-5168.437549269935</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-3839.829449269935</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-7965.707949269934</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-25595.16224926994</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-30982.75964926993</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-31709.78844926993</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-23815.62014926993</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-23815.62014926993</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-23815.62014926993</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-23815.62014926993</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-23814.62014926993</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-39008.28624926994</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-39008.28624926994</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-38981.47664926993</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-37672.38684926993</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-37672.38684926993</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-37672.38684926993</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-37671.38684926993</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-37671.38684926993</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-37671.38684926993</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-40143.01994926993</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-42080.86034926993</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-37854.63214926993</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-32178.99054926993</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-34176.18264926993</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-33833.78714926993</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-36281.73934926993</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-35231.62794926993</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-35231.62794926993</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-36420.11194926992</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-34754.36719887993</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-34754.36719887993</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-34754.36719887993</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-35865.14889887992</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-33842.49339887992</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-27073.72819620992</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-24800.44851283992</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-24800.44851283992</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-21160.39809620992</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-21160.39809620992</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-21160.39809620992</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-21160.39809620992</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-21170.39809620992</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-15581.44549620992</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-20201.44549620992</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-20200.44549620992</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-20200.44549620992</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-20200.44549620992</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>3111.25960379008</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>3111.25960379008</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>3111.25960379008</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>6910.15220379008</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>6911.15220379008</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5682.994603790081</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>7045.312303790081</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>7045.312303790081</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-2736.299396209918</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>5639.690394340081</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>19736.87200379008</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>28344.00150379008</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>28344.00150379008</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>30330.00150379008</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>234903.3962230601</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>223976.6433230601</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>228955.0646230601</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>214445.0513230601</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>204061.8869230601</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>218372.8884230601</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>221047.4867230601</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>218055.9459230601</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>218055.9459230601</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>223106.9280230601</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>237462.2144230601</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>237462.2144230601</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>218422.4808230601</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>220498.9500230601</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>217689.1016230601</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>226071.5557230601</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>224301.8099230601</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>208671.2423230601</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>209000.2423230601</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>209000.2423230601</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
